--- a/2020-09-26_PM_CA_Hermon-Tesfay_fp02.xlsx
+++ b/2020-09-26_PM_CA_Hermon-Tesfay_fp02.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hermon/Desktop/AW13 - Project Methodology/innlevering/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hermon/Desktop/AW13 - Project Methodology/innlevering/1of2-Project-Methodology-Course-Assignment---Hermon-Tesfay-master 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCD8FF93-A48B-7E4B-BB36-C6775FBFCCE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2041F970-C097-B143-A446-0A564780F1C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25560" windowHeight="14860" xr2:uid="{410BEE84-B2B2-454E-9CE0-5B4F0D57B5A6}"/>
+    <workbookView xWindow="5980" yWindow="460" windowWidth="25560" windowHeight="14860" xr2:uid="{410BEE84-B2B2-454E-9CE0-5B4F0D57B5A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="70">
   <si>
     <t>PROJECT MANAGER: Hermon Tesfay</t>
   </si>
@@ -229,6 +229,12 @@
   </si>
   <si>
     <t>PROJECT: Loftus Frukt og Saft Website</t>
+  </si>
+  <si>
+    <t>2 Weeks</t>
+  </si>
+  <si>
+    <t>6 Weeks</t>
   </si>
 </sst>
 </file>
@@ -855,291 +861,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -1194,18 +918,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
@@ -1218,33 +930,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1268,42 +953,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1325,6 +974,363 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1646,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{814EF706-DEBC-E04E-B065-7F11C4E6A648}">
   <dimension ref="A1:DQ55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1668,102 +1674,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:121" ht="239" customHeight="1">
-      <c r="G1" s="198" t="s">
+      <c r="G1" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="199"/>
-      <c r="T1" s="199"/>
-      <c r="U1" s="199"/>
-      <c r="V1" s="199"/>
-      <c r="W1" s="199"/>
-      <c r="X1" s="199"/>
-      <c r="Y1" s="199"/>
-      <c r="Z1" s="199"/>
-      <c r="AA1" s="199"/>
-      <c r="AB1" s="199"/>
-      <c r="AC1" s="199"/>
-      <c r="AD1" s="199"/>
-      <c r="AE1" s="199"/>
-      <c r="AF1" s="199"/>
-      <c r="AG1" s="199"/>
-      <c r="AH1" s="199"/>
-      <c r="AI1" s="199"/>
-      <c r="AJ1" s="199"/>
-      <c r="AK1" s="199"/>
-      <c r="AL1" s="199"/>
-      <c r="AM1" s="199"/>
-      <c r="AN1" s="199"/>
-      <c r="AO1" s="199"/>
-      <c r="AP1" s="199"/>
-      <c r="AQ1" s="199"/>
-      <c r="AR1" s="199"/>
-      <c r="AS1" s="199"/>
-      <c r="AT1" s="199"/>
-      <c r="AU1" s="199"/>
-      <c r="AV1" s="199"/>
-      <c r="AW1" s="199"/>
-      <c r="AX1" s="199"/>
-      <c r="AY1" s="199"/>
-      <c r="AZ1" s="199"/>
-      <c r="BA1" s="199"/>
-      <c r="BB1" s="199"/>
-      <c r="BC1" s="199"/>
-      <c r="BD1" s="199"/>
-      <c r="BE1" s="199"/>
-      <c r="BF1" s="199"/>
-      <c r="BG1" s="199"/>
-      <c r="BH1" s="199"/>
-      <c r="BI1" s="199"/>
-      <c r="BJ1" s="199"/>
-      <c r="BK1" s="199"/>
-      <c r="BL1" s="199"/>
-      <c r="BM1" s="199"/>
-      <c r="BN1" s="199"/>
-      <c r="BO1" s="199"/>
-      <c r="BP1" s="199"/>
-      <c r="BQ1" s="199"/>
-      <c r="BR1" s="199"/>
-      <c r="BS1" s="199"/>
-      <c r="BT1" s="199"/>
-      <c r="BU1" s="199"/>
-      <c r="BV1" s="199"/>
-      <c r="BW1" s="199"/>
-      <c r="BX1" s="199"/>
-      <c r="BY1" s="199"/>
-      <c r="BZ1" s="199"/>
-      <c r="CA1" s="199"/>
-      <c r="CB1" s="199"/>
-      <c r="CC1" s="199"/>
-      <c r="CD1" s="199"/>
-      <c r="CE1" s="199"/>
-      <c r="CF1" s="199"/>
-      <c r="CG1" s="199"/>
-      <c r="CH1" s="199"/>
-      <c r="CI1" s="199"/>
-      <c r="CJ1" s="199"/>
-      <c r="CK1" s="199"/>
-      <c r="CL1" s="199"/>
-      <c r="CM1" s="199"/>
-      <c r="CN1" s="200"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
+      <c r="M1" s="156"/>
+      <c r="N1" s="156"/>
+      <c r="O1" s="156"/>
+      <c r="P1" s="156"/>
+      <c r="Q1" s="156"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="156"/>
+      <c r="T1" s="156"/>
+      <c r="U1" s="156"/>
+      <c r="V1" s="156"/>
+      <c r="W1" s="156"/>
+      <c r="X1" s="156"/>
+      <c r="Y1" s="156"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="156"/>
+      <c r="AB1" s="156"/>
+      <c r="AC1" s="156"/>
+      <c r="AD1" s="156"/>
+      <c r="AE1" s="156"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="156"/>
+      <c r="AH1" s="156"/>
+      <c r="AI1" s="156"/>
+      <c r="AJ1" s="156"/>
+      <c r="AK1" s="156"/>
+      <c r="AL1" s="156"/>
+      <c r="AM1" s="156"/>
+      <c r="AN1" s="156"/>
+      <c r="AO1" s="156"/>
+      <c r="AP1" s="156"/>
+      <c r="AQ1" s="156"/>
+      <c r="AR1" s="156"/>
+      <c r="AS1" s="156"/>
+      <c r="AT1" s="156"/>
+      <c r="AU1" s="156"/>
+      <c r="AV1" s="156"/>
+      <c r="AW1" s="156"/>
+      <c r="AX1" s="156"/>
+      <c r="AY1" s="156"/>
+      <c r="AZ1" s="156"/>
+      <c r="BA1" s="156"/>
+      <c r="BB1" s="156"/>
+      <c r="BC1" s="156"/>
+      <c r="BD1" s="156"/>
+      <c r="BE1" s="156"/>
+      <c r="BF1" s="156"/>
+      <c r="BG1" s="156"/>
+      <c r="BH1" s="156"/>
+      <c r="BI1" s="156"/>
+      <c r="BJ1" s="156"/>
+      <c r="BK1" s="156"/>
+      <c r="BL1" s="156"/>
+      <c r="BM1" s="156"/>
+      <c r="BN1" s="156"/>
+      <c r="BO1" s="156"/>
+      <c r="BP1" s="156"/>
+      <c r="BQ1" s="156"/>
+      <c r="BR1" s="156"/>
+      <c r="BS1" s="156"/>
+      <c r="BT1" s="156"/>
+      <c r="BU1" s="156"/>
+      <c r="BV1" s="156"/>
+      <c r="BW1" s="156"/>
+      <c r="BX1" s="156"/>
+      <c r="BY1" s="156"/>
+      <c r="BZ1" s="156"/>
+      <c r="CA1" s="156"/>
+      <c r="CB1" s="156"/>
+      <c r="CC1" s="156"/>
+      <c r="CD1" s="156"/>
+      <c r="CE1" s="156"/>
+      <c r="CF1" s="156"/>
+      <c r="CG1" s="156"/>
+      <c r="CH1" s="156"/>
+      <c r="CI1" s="156"/>
+      <c r="CJ1" s="156"/>
+      <c r="CK1" s="156"/>
+      <c r="CL1" s="156"/>
+      <c r="CM1" s="156"/>
+      <c r="CN1" s="157"/>
     </row>
     <row r="2" spans="1:121" ht="116" customHeight="1">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="82" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="202"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="204"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
     </row>
     <row r="3" spans="1:121" ht="18" customHeight="1">
       <c r="A3" s="18"/>
@@ -1772,104 +1778,104 @@
       <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:121" ht="67" customHeight="1">
-      <c r="A4" s="205" t="s">
+      <c r="A4" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="206"/>
-      <c r="C4" s="207"/>
-      <c r="D4" s="208"/>
-      <c r="G4" s="117" t="s">
+      <c r="B4" s="87"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="G4" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118"/>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="118"/>
-      <c r="AC4" s="118"/>
-      <c r="AD4" s="118"/>
-      <c r="AE4" s="118"/>
-      <c r="AF4" s="118"/>
-      <c r="AG4" s="118"/>
-      <c r="AH4" s="119"/>
+      <c r="H4" s="204"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="204"/>
+      <c r="N4" s="204"/>
+      <c r="O4" s="204"/>
+      <c r="P4" s="204"/>
+      <c r="Q4" s="204"/>
+      <c r="R4" s="204"/>
+      <c r="S4" s="204"/>
+      <c r="T4" s="204"/>
+      <c r="U4" s="204"/>
+      <c r="V4" s="204"/>
+      <c r="W4" s="204"/>
+      <c r="X4" s="204"/>
+      <c r="Y4" s="204"/>
+      <c r="Z4" s="204"/>
+      <c r="AA4" s="204"/>
+      <c r="AB4" s="204"/>
+      <c r="AC4" s="204"/>
+      <c r="AD4" s="204"/>
+      <c r="AE4" s="204"/>
+      <c r="AF4" s="204"/>
+      <c r="AG4" s="204"/>
+      <c r="AH4" s="205"/>
       <c r="AI4" s="5"/>
-      <c r="AJ4" s="120" t="s">
+      <c r="AJ4" s="206" t="s">
         <v>13</v>
       </c>
-      <c r="AK4" s="121"/>
-      <c r="AL4" s="121"/>
-      <c r="AM4" s="121"/>
-      <c r="AN4" s="121"/>
-      <c r="AO4" s="121"/>
-      <c r="AP4" s="121"/>
-      <c r="AQ4" s="121"/>
-      <c r="AR4" s="121"/>
-      <c r="AS4" s="121"/>
-      <c r="AT4" s="121"/>
-      <c r="AU4" s="121"/>
-      <c r="AV4" s="121"/>
-      <c r="AW4" s="121"/>
-      <c r="AX4" s="121"/>
-      <c r="AY4" s="121"/>
-      <c r="AZ4" s="121"/>
-      <c r="BA4" s="121"/>
-      <c r="BB4" s="121"/>
-      <c r="BC4" s="121"/>
-      <c r="BD4" s="121"/>
-      <c r="BE4" s="121"/>
-      <c r="BF4" s="121"/>
-      <c r="BG4" s="121"/>
-      <c r="BH4" s="121"/>
-      <c r="BI4" s="121"/>
-      <c r="BJ4" s="121"/>
-      <c r="BK4" s="122"/>
+      <c r="AK4" s="207"/>
+      <c r="AL4" s="207"/>
+      <c r="AM4" s="207"/>
+      <c r="AN4" s="207"/>
+      <c r="AO4" s="207"/>
+      <c r="AP4" s="207"/>
+      <c r="AQ4" s="207"/>
+      <c r="AR4" s="207"/>
+      <c r="AS4" s="207"/>
+      <c r="AT4" s="207"/>
+      <c r="AU4" s="207"/>
+      <c r="AV4" s="207"/>
+      <c r="AW4" s="207"/>
+      <c r="AX4" s="207"/>
+      <c r="AY4" s="207"/>
+      <c r="AZ4" s="207"/>
+      <c r="BA4" s="207"/>
+      <c r="BB4" s="207"/>
+      <c r="BC4" s="207"/>
+      <c r="BD4" s="207"/>
+      <c r="BE4" s="207"/>
+      <c r="BF4" s="207"/>
+      <c r="BG4" s="207"/>
+      <c r="BH4" s="207"/>
+      <c r="BI4" s="207"/>
+      <c r="BJ4" s="207"/>
+      <c r="BK4" s="208"/>
       <c r="BL4" s="7"/>
-      <c r="BM4" s="123" t="s">
+      <c r="BM4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="BN4" s="124"/>
-      <c r="BO4" s="124"/>
-      <c r="BP4" s="124"/>
-      <c r="BQ4" s="124"/>
-      <c r="BR4" s="124"/>
-      <c r="BS4" s="124"/>
-      <c r="BT4" s="124"/>
-      <c r="BU4" s="124"/>
-      <c r="BV4" s="124"/>
-      <c r="BW4" s="124"/>
-      <c r="BX4" s="124"/>
-      <c r="BY4" s="124"/>
-      <c r="BZ4" s="124"/>
-      <c r="CA4" s="124"/>
-      <c r="CB4" s="124"/>
-      <c r="CC4" s="124"/>
-      <c r="CD4" s="124"/>
-      <c r="CE4" s="124"/>
-      <c r="CF4" s="124"/>
-      <c r="CG4" s="124"/>
-      <c r="CH4" s="124"/>
-      <c r="CI4" s="124"/>
-      <c r="CJ4" s="124"/>
-      <c r="CK4" s="124"/>
-      <c r="CL4" s="124"/>
-      <c r="CM4" s="124"/>
-      <c r="CN4" s="125"/>
+      <c r="BN4" s="91"/>
+      <c r="BO4" s="91"/>
+      <c r="BP4" s="91"/>
+      <c r="BQ4" s="91"/>
+      <c r="BR4" s="91"/>
+      <c r="BS4" s="91"/>
+      <c r="BT4" s="91"/>
+      <c r="BU4" s="91"/>
+      <c r="BV4" s="91"/>
+      <c r="BW4" s="91"/>
+      <c r="BX4" s="91"/>
+      <c r="BY4" s="91"/>
+      <c r="BZ4" s="91"/>
+      <c r="CA4" s="91"/>
+      <c r="CB4" s="91"/>
+      <c r="CC4" s="91"/>
+      <c r="CD4" s="91"/>
+      <c r="CE4" s="91"/>
+      <c r="CF4" s="91"/>
+      <c r="CG4" s="91"/>
+      <c r="CH4" s="91"/>
+      <c r="CI4" s="91"/>
+      <c r="CJ4" s="91"/>
+      <c r="CK4" s="91"/>
+      <c r="CL4" s="91"/>
+      <c r="CM4" s="91"/>
+      <c r="CN4" s="92"/>
       <c r="CO4" s="5"/>
     </row>
     <row r="5" spans="1:121" ht="20" customHeight="1">
@@ -1965,267 +1971,267 @@
       <c r="CO5" s="5"/>
     </row>
     <row r="6" spans="1:121" ht="69" customHeight="1">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="128"/>
-      <c r="G6" s="112" t="s">
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="95"/>
+      <c r="G6" s="200" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="113"/>
-      <c r="P6" s="113"/>
-      <c r="Q6" s="113"/>
-      <c r="R6" s="113"/>
-      <c r="S6" s="113"/>
-      <c r="T6" s="113"/>
-      <c r="U6" s="113"/>
-      <c r="V6" s="113"/>
-      <c r="W6" s="113"/>
-      <c r="X6" s="113"/>
-      <c r="Y6" s="113"/>
-      <c r="Z6" s="113"/>
-      <c r="AA6" s="113"/>
-      <c r="AB6" s="113"/>
-      <c r="AC6" s="113"/>
-      <c r="AD6" s="113"/>
-      <c r="AE6" s="113"/>
-      <c r="AF6" s="113"/>
-      <c r="AG6" s="113"/>
-      <c r="AH6" s="114"/>
+      <c r="H6" s="201"/>
+      <c r="I6" s="201"/>
+      <c r="J6" s="201"/>
+      <c r="K6" s="201"/>
+      <c r="L6" s="201"/>
+      <c r="M6" s="201"/>
+      <c r="N6" s="201"/>
+      <c r="O6" s="201"/>
+      <c r="P6" s="201"/>
+      <c r="Q6" s="201"/>
+      <c r="R6" s="201"/>
+      <c r="S6" s="201"/>
+      <c r="T6" s="201"/>
+      <c r="U6" s="201"/>
+      <c r="V6" s="201"/>
+      <c r="W6" s="201"/>
+      <c r="X6" s="201"/>
+      <c r="Y6" s="201"/>
+      <c r="Z6" s="201"/>
+      <c r="AA6" s="201"/>
+      <c r="AB6" s="201"/>
+      <c r="AC6" s="201"/>
+      <c r="AD6" s="201"/>
+      <c r="AE6" s="201"/>
+      <c r="AF6" s="201"/>
+      <c r="AG6" s="201"/>
+      <c r="AH6" s="202"/>
       <c r="AI6" s="5"/>
-      <c r="AJ6" s="109" t="s">
+      <c r="AJ6" s="197" t="s">
         <v>36</v>
       </c>
-      <c r="AK6" s="110"/>
-      <c r="AL6" s="110"/>
-      <c r="AM6" s="110"/>
-      <c r="AN6" s="110"/>
-      <c r="AO6" s="110"/>
-      <c r="AP6" s="110"/>
-      <c r="AQ6" s="110"/>
-      <c r="AR6" s="110"/>
-      <c r="AS6" s="110"/>
-      <c r="AT6" s="110"/>
-      <c r="AU6" s="110"/>
-      <c r="AV6" s="110"/>
-      <c r="AW6" s="110"/>
-      <c r="AX6" s="110"/>
-      <c r="AY6" s="110"/>
-      <c r="AZ6" s="110"/>
-      <c r="BA6" s="110"/>
-      <c r="BB6" s="110"/>
-      <c r="BC6" s="110"/>
-      <c r="BD6" s="110"/>
-      <c r="BE6" s="110"/>
-      <c r="BF6" s="110"/>
-      <c r="BG6" s="110"/>
-      <c r="BH6" s="110"/>
-      <c r="BI6" s="110"/>
-      <c r="BJ6" s="110"/>
-      <c r="BK6" s="111"/>
+      <c r="AK6" s="198"/>
+      <c r="AL6" s="198"/>
+      <c r="AM6" s="198"/>
+      <c r="AN6" s="198"/>
+      <c r="AO6" s="198"/>
+      <c r="AP6" s="198"/>
+      <c r="AQ6" s="198"/>
+      <c r="AR6" s="198"/>
+      <c r="AS6" s="198"/>
+      <c r="AT6" s="198"/>
+      <c r="AU6" s="198"/>
+      <c r="AV6" s="198"/>
+      <c r="AW6" s="198"/>
+      <c r="AX6" s="198"/>
+      <c r="AY6" s="198"/>
+      <c r="AZ6" s="198"/>
+      <c r="BA6" s="198"/>
+      <c r="BB6" s="198"/>
+      <c r="BC6" s="198"/>
+      <c r="BD6" s="198"/>
+      <c r="BE6" s="198"/>
+      <c r="BF6" s="198"/>
+      <c r="BG6" s="198"/>
+      <c r="BH6" s="198"/>
+      <c r="BI6" s="198"/>
+      <c r="BJ6" s="198"/>
+      <c r="BK6" s="199"/>
       <c r="BL6" s="7"/>
-      <c r="BM6" s="129" t="s">
+      <c r="BM6" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="BN6" s="130"/>
-      <c r="BO6" s="130"/>
-      <c r="BP6" s="130"/>
-      <c r="BQ6" s="130"/>
-      <c r="BR6" s="130"/>
-      <c r="BS6" s="130"/>
-      <c r="BT6" s="130"/>
-      <c r="BU6" s="130"/>
-      <c r="BV6" s="130"/>
-      <c r="BW6" s="130"/>
-      <c r="BX6" s="130"/>
-      <c r="BY6" s="130"/>
-      <c r="BZ6" s="130"/>
-      <c r="CA6" s="130"/>
-      <c r="CB6" s="130"/>
-      <c r="CC6" s="130"/>
-      <c r="CD6" s="130"/>
-      <c r="CE6" s="130"/>
-      <c r="CF6" s="130"/>
-      <c r="CG6" s="130"/>
-      <c r="CH6" s="130"/>
-      <c r="CI6" s="130"/>
-      <c r="CJ6" s="130"/>
-      <c r="CK6" s="130"/>
-      <c r="CL6" s="130"/>
-      <c r="CM6" s="130"/>
-      <c r="CN6" s="131"/>
+      <c r="BN6" s="97"/>
+      <c r="BO6" s="97"/>
+      <c r="BP6" s="97"/>
+      <c r="BQ6" s="97"/>
+      <c r="BR6" s="97"/>
+      <c r="BS6" s="97"/>
+      <c r="BT6" s="97"/>
+      <c r="BU6" s="97"/>
+      <c r="BV6" s="97"/>
+      <c r="BW6" s="97"/>
+      <c r="BX6" s="97"/>
+      <c r="BY6" s="97"/>
+      <c r="BZ6" s="97"/>
+      <c r="CA6" s="97"/>
+      <c r="CB6" s="97"/>
+      <c r="CC6" s="97"/>
+      <c r="CD6" s="97"/>
+      <c r="CE6" s="97"/>
+      <c r="CF6" s="97"/>
+      <c r="CG6" s="97"/>
+      <c r="CH6" s="97"/>
+      <c r="CI6" s="97"/>
+      <c r="CJ6" s="97"/>
+      <c r="CK6" s="97"/>
+      <c r="CL6" s="97"/>
+      <c r="CM6" s="97"/>
+      <c r="CN6" s="98"/>
       <c r="CO6" s="5"/>
     </row>
     <row r="7" spans="1:121" ht="53" customHeight="1">
       <c r="A7" s="50"/>
-      <c r="B7" s="181" t="s">
+      <c r="B7" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="182" t="s">
+      <c r="C7" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="183" t="s">
+      <c r="D7" s="76" t="s">
         <v>41</v>
       </c>
       <c r="E7" s="22"/>
-      <c r="G7" s="132" t="s">
+      <c r="G7" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="134" t="s">
+      <c r="H7" s="100"/>
+      <c r="I7" s="100"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="100"/>
+      <c r="N7" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="133"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="133"/>
-      <c r="S7" s="133"/>
-      <c r="T7" s="133"/>
-      <c r="U7" s="134" t="s">
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="V7" s="133"/>
-      <c r="W7" s="133"/>
-      <c r="X7" s="133"/>
-      <c r="Y7" s="133"/>
-      <c r="Z7" s="133"/>
-      <c r="AA7" s="133"/>
-      <c r="AB7" s="134" t="s">
+      <c r="V7" s="100"/>
+      <c r="W7" s="100"/>
+      <c r="X7" s="100"/>
+      <c r="Y7" s="100"/>
+      <c r="Z7" s="100"/>
+      <c r="AA7" s="100"/>
+      <c r="AB7" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="AC7" s="133"/>
-      <c r="AD7" s="133"/>
-      <c r="AE7" s="133"/>
-      <c r="AF7" s="133"/>
-      <c r="AG7" s="133"/>
-      <c r="AH7" s="135"/>
+      <c r="AC7" s="100"/>
+      <c r="AD7" s="100"/>
+      <c r="AE7" s="100"/>
+      <c r="AF7" s="100"/>
+      <c r="AG7" s="100"/>
+      <c r="AH7" s="102"/>
       <c r="AI7" s="36"/>
-      <c r="AJ7" s="132" t="s">
+      <c r="AJ7" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="AK7" s="133"/>
-      <c r="AL7" s="133"/>
-      <c r="AM7" s="133"/>
-      <c r="AN7" s="133"/>
-      <c r="AO7" s="133"/>
-      <c r="AP7" s="133"/>
-      <c r="AQ7" s="134" t="s">
+      <c r="AK7" s="100"/>
+      <c r="AL7" s="100"/>
+      <c r="AM7" s="100"/>
+      <c r="AN7" s="100"/>
+      <c r="AO7" s="100"/>
+      <c r="AP7" s="100"/>
+      <c r="AQ7" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="AR7" s="133"/>
-      <c r="AS7" s="133"/>
-      <c r="AT7" s="133"/>
-      <c r="AU7" s="133"/>
-      <c r="AV7" s="133"/>
-      <c r="AW7" s="133"/>
-      <c r="AX7" s="134" t="s">
+      <c r="AR7" s="100"/>
+      <c r="AS7" s="100"/>
+      <c r="AT7" s="100"/>
+      <c r="AU7" s="100"/>
+      <c r="AV7" s="100"/>
+      <c r="AW7" s="100"/>
+      <c r="AX7" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="AY7" s="133"/>
-      <c r="AZ7" s="133"/>
-      <c r="BA7" s="133"/>
-      <c r="BB7" s="133"/>
-      <c r="BC7" s="133"/>
-      <c r="BD7" s="133"/>
-      <c r="BE7" s="134" t="s">
+      <c r="AY7" s="100"/>
+      <c r="AZ7" s="100"/>
+      <c r="BA7" s="100"/>
+      <c r="BB7" s="100"/>
+      <c r="BC7" s="100"/>
+      <c r="BD7" s="100"/>
+      <c r="BE7" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="BF7" s="133"/>
-      <c r="BG7" s="133"/>
-      <c r="BH7" s="133"/>
-      <c r="BI7" s="133"/>
-      <c r="BJ7" s="133"/>
-      <c r="BK7" s="135"/>
+      <c r="BF7" s="100"/>
+      <c r="BG7" s="100"/>
+      <c r="BH7" s="100"/>
+      <c r="BI7" s="100"/>
+      <c r="BJ7" s="100"/>
+      <c r="BK7" s="102"/>
       <c r="BL7" s="37"/>
-      <c r="BM7" s="132" t="s">
+      <c r="BM7" s="99" t="s">
         <v>31</v>
       </c>
-      <c r="BN7" s="133"/>
-      <c r="BO7" s="133"/>
-      <c r="BP7" s="133"/>
-      <c r="BQ7" s="133"/>
-      <c r="BR7" s="133"/>
-      <c r="BS7" s="133"/>
-      <c r="BT7" s="134" t="s">
+      <c r="BN7" s="100"/>
+      <c r="BO7" s="100"/>
+      <c r="BP7" s="100"/>
+      <c r="BQ7" s="100"/>
+      <c r="BR7" s="100"/>
+      <c r="BS7" s="100"/>
+      <c r="BT7" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="BU7" s="133"/>
-      <c r="BV7" s="133"/>
-      <c r="BW7" s="133"/>
-      <c r="BX7" s="133"/>
-      <c r="BY7" s="133"/>
-      <c r="BZ7" s="133"/>
-      <c r="CA7" s="134" t="s">
+      <c r="BU7" s="100"/>
+      <c r="BV7" s="100"/>
+      <c r="BW7" s="100"/>
+      <c r="BX7" s="100"/>
+      <c r="BY7" s="100"/>
+      <c r="BZ7" s="100"/>
+      <c r="CA7" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="CB7" s="133"/>
-      <c r="CC7" s="133"/>
-      <c r="CD7" s="133"/>
-      <c r="CE7" s="133"/>
-      <c r="CF7" s="133"/>
-      <c r="CG7" s="133"/>
-      <c r="CH7" s="134" t="s">
+      <c r="CB7" s="100"/>
+      <c r="CC7" s="100"/>
+      <c r="CD7" s="100"/>
+      <c r="CE7" s="100"/>
+      <c r="CF7" s="100"/>
+      <c r="CG7" s="100"/>
+      <c r="CH7" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="CI7" s="133"/>
-      <c r="CJ7" s="133"/>
-      <c r="CK7" s="133"/>
-      <c r="CL7" s="133"/>
-      <c r="CM7" s="133"/>
-      <c r="CN7" s="135"/>
+      <c r="CI7" s="100"/>
+      <c r="CJ7" s="100"/>
+      <c r="CK7" s="100"/>
+      <c r="CL7" s="100"/>
+      <c r="CM7" s="100"/>
+      <c r="CN7" s="102"/>
       <c r="CO7" s="11"/>
-      <c r="CP7" s="115"/>
-      <c r="CQ7" s="115"/>
-      <c r="CR7" s="115"/>
-      <c r="CS7" s="115"/>
-      <c r="CT7" s="115"/>
-      <c r="CU7" s="115"/>
-      <c r="CV7" s="115"/>
-      <c r="CW7" s="115"/>
-      <c r="CX7" s="115"/>
-      <c r="CY7" s="115"/>
-      <c r="CZ7" s="115"/>
-      <c r="DA7" s="115"/>
-      <c r="DB7" s="115"/>
-      <c r="DC7" s="115"/>
-      <c r="DD7" s="115"/>
-      <c r="DE7" s="115"/>
-      <c r="DF7" s="115"/>
-      <c r="DG7" s="115"/>
-      <c r="DH7" s="115"/>
-      <c r="DI7" s="115"/>
-      <c r="DJ7" s="115"/>
-      <c r="DK7" s="115"/>
-      <c r="DL7" s="115"/>
-      <c r="DM7" s="115"/>
-      <c r="DN7" s="115"/>
-      <c r="DO7" s="115"/>
-      <c r="DP7" s="115"/>
-      <c r="DQ7" s="115"/>
+      <c r="CP7" s="103"/>
+      <c r="CQ7" s="103"/>
+      <c r="CR7" s="103"/>
+      <c r="CS7" s="103"/>
+      <c r="CT7" s="103"/>
+      <c r="CU7" s="103"/>
+      <c r="CV7" s="103"/>
+      <c r="CW7" s="103"/>
+      <c r="CX7" s="103"/>
+      <c r="CY7" s="103"/>
+      <c r="CZ7" s="103"/>
+      <c r="DA7" s="103"/>
+      <c r="DB7" s="103"/>
+      <c r="DC7" s="103"/>
+      <c r="DD7" s="103"/>
+      <c r="DE7" s="103"/>
+      <c r="DF7" s="103"/>
+      <c r="DG7" s="103"/>
+      <c r="DH7" s="103"/>
+      <c r="DI7" s="103"/>
+      <c r="DJ7" s="103"/>
+      <c r="DK7" s="103"/>
+      <c r="DL7" s="103"/>
+      <c r="DM7" s="103"/>
+      <c r="DN7" s="103"/>
+      <c r="DO7" s="103"/>
+      <c r="DP7" s="103"/>
+      <c r="DQ7" s="103"/>
     </row>
     <row r="8" spans="1:121" ht="75" customHeight="1">
-      <c r="A8" s="116" t="s">
+      <c r="A8" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
       <c r="G8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2511,19 +2517,19 @@
       <c r="DQ8" s="1"/>
     </row>
     <row r="9" spans="1:121" ht="69" customHeight="1">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="185" t="s">
+      <c r="B9" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="186" t="s">
+      <c r="C9" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="187" t="s">
+      <c r="D9" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="188" t="s">
+      <c r="E9" s="81" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="2">
@@ -2941,104 +2947,104 @@
       <c r="E11" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="106" t="s">
+      <c r="G11" s="194" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="107"/>
-      <c r="N11" s="107"/>
-      <c r="O11" s="107"/>
-      <c r="P11" s="107"/>
-      <c r="Q11" s="107"/>
-      <c r="R11" s="107"/>
-      <c r="S11" s="107"/>
-      <c r="T11" s="107"/>
-      <c r="U11" s="107"/>
-      <c r="V11" s="107"/>
-      <c r="W11" s="107"/>
-      <c r="X11" s="107"/>
-      <c r="Y11" s="107"/>
-      <c r="Z11" s="107"/>
-      <c r="AA11" s="107"/>
-      <c r="AB11" s="107"/>
-      <c r="AC11" s="107"/>
-      <c r="AD11" s="107"/>
-      <c r="AE11" s="107"/>
-      <c r="AF11" s="107"/>
-      <c r="AG11" s="107"/>
-      <c r="AH11" s="108"/>
+      <c r="H11" s="195"/>
+      <c r="I11" s="195"/>
+      <c r="J11" s="195"/>
+      <c r="K11" s="195"/>
+      <c r="L11" s="195"/>
+      <c r="M11" s="195"/>
+      <c r="N11" s="195"/>
+      <c r="O11" s="195"/>
+      <c r="P11" s="195"/>
+      <c r="Q11" s="195"/>
+      <c r="R11" s="195"/>
+      <c r="S11" s="195"/>
+      <c r="T11" s="195"/>
+      <c r="U11" s="195"/>
+      <c r="V11" s="195"/>
+      <c r="W11" s="195"/>
+      <c r="X11" s="195"/>
+      <c r="Y11" s="195"/>
+      <c r="Z11" s="195"/>
+      <c r="AA11" s="195"/>
+      <c r="AB11" s="195"/>
+      <c r="AC11" s="195"/>
+      <c r="AD11" s="195"/>
+      <c r="AE11" s="195"/>
+      <c r="AF11" s="195"/>
+      <c r="AG11" s="195"/>
+      <c r="AH11" s="196"/>
       <c r="AI11" s="14"/>
-      <c r="AJ11" s="60" t="s">
+      <c r="AJ11" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="AK11" s="61"/>
-      <c r="AL11" s="61"/>
-      <c r="AM11" s="61"/>
-      <c r="AN11" s="61"/>
-      <c r="AO11" s="61"/>
-      <c r="AP11" s="61"/>
-      <c r="AQ11" s="61"/>
-      <c r="AR11" s="61"/>
-      <c r="AS11" s="61"/>
-      <c r="AT11" s="61"/>
-      <c r="AU11" s="61"/>
-      <c r="AV11" s="61"/>
-      <c r="AW11" s="61"/>
-      <c r="AX11" s="61"/>
-      <c r="AY11" s="61"/>
-      <c r="AZ11" s="61"/>
-      <c r="BA11" s="61"/>
-      <c r="BB11" s="61"/>
-      <c r="BC11" s="61"/>
-      <c r="BD11" s="61"/>
-      <c r="BE11" s="61"/>
-      <c r="BF11" s="61"/>
-      <c r="BG11" s="61"/>
-      <c r="BH11" s="61"/>
-      <c r="BI11" s="61"/>
-      <c r="BJ11" s="61"/>
-      <c r="BK11" s="62"/>
+      <c r="AK11" s="150"/>
+      <c r="AL11" s="150"/>
+      <c r="AM11" s="150"/>
+      <c r="AN11" s="150"/>
+      <c r="AO11" s="150"/>
+      <c r="AP11" s="150"/>
+      <c r="AQ11" s="150"/>
+      <c r="AR11" s="150"/>
+      <c r="AS11" s="150"/>
+      <c r="AT11" s="150"/>
+      <c r="AU11" s="150"/>
+      <c r="AV11" s="150"/>
+      <c r="AW11" s="150"/>
+      <c r="AX11" s="150"/>
+      <c r="AY11" s="150"/>
+      <c r="AZ11" s="150"/>
+      <c r="BA11" s="150"/>
+      <c r="BB11" s="150"/>
+      <c r="BC11" s="150"/>
+      <c r="BD11" s="150"/>
+      <c r="BE11" s="150"/>
+      <c r="BF11" s="150"/>
+      <c r="BG11" s="150"/>
+      <c r="BH11" s="150"/>
+      <c r="BI11" s="150"/>
+      <c r="BJ11" s="150"/>
+      <c r="BK11" s="151"/>
       <c r="BL11" s="8"/>
-      <c r="BM11" s="63" t="s">
+      <c r="BM11" s="152" t="s">
         <v>60</v>
       </c>
-      <c r="BN11" s="64"/>
-      <c r="BO11" s="64"/>
-      <c r="BP11" s="64"/>
-      <c r="BQ11" s="64"/>
-      <c r="BR11" s="64"/>
-      <c r="BS11" s="64"/>
-      <c r="BT11" s="64"/>
-      <c r="BU11" s="64"/>
-      <c r="BV11" s="64"/>
-      <c r="BW11" s="64"/>
-      <c r="BX11" s="64"/>
-      <c r="BY11" s="64"/>
-      <c r="BZ11" s="64"/>
-      <c r="CA11" s="64"/>
-      <c r="CB11" s="64"/>
-      <c r="CC11" s="64"/>
-      <c r="CD11" s="64"/>
-      <c r="CE11" s="64"/>
-      <c r="CF11" s="64"/>
-      <c r="CG11" s="64"/>
-      <c r="CH11" s="64"/>
-      <c r="CI11" s="64"/>
-      <c r="CJ11" s="64"/>
-      <c r="CK11" s="64"/>
-      <c r="CL11" s="64"/>
-      <c r="CM11" s="64"/>
-      <c r="CN11" s="65"/>
+      <c r="BN11" s="153"/>
+      <c r="BO11" s="153"/>
+      <c r="BP11" s="153"/>
+      <c r="BQ11" s="153"/>
+      <c r="BR11" s="153"/>
+      <c r="BS11" s="153"/>
+      <c r="BT11" s="153"/>
+      <c r="BU11" s="153"/>
+      <c r="BV11" s="153"/>
+      <c r="BW11" s="153"/>
+      <c r="BX11" s="153"/>
+      <c r="BY11" s="153"/>
+      <c r="BZ11" s="153"/>
+      <c r="CA11" s="153"/>
+      <c r="CB11" s="153"/>
+      <c r="CC11" s="153"/>
+      <c r="CD11" s="153"/>
+      <c r="CE11" s="153"/>
+      <c r="CF11" s="153"/>
+      <c r="CG11" s="153"/>
+      <c r="CH11" s="153"/>
+      <c r="CI11" s="153"/>
+      <c r="CJ11" s="153"/>
+      <c r="CK11" s="153"/>
+      <c r="CL11" s="153"/>
+      <c r="CM11" s="153"/>
+      <c r="CN11" s="154"/>
     </row>
     <row r="12" spans="1:121" ht="60" customHeight="1">
-      <c r="A12" s="146" t="s">
+      <c r="A12" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="147" t="s">
+      <c r="B12" s="53" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="3">
@@ -3050,11 +3056,11 @@
       <c r="E12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="189" t="s">
+      <c r="G12" s="176" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="190"/>
-      <c r="I12" s="191"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="178"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -3138,9 +3144,9 @@
       <c r="CN12" s="17"/>
     </row>
     <row r="13" spans="1:121">
-      <c r="G13" s="192"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="194"/>
+      <c r="G13" s="179"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="181"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
       <c r="L13" s="25"/>
@@ -3224,10 +3230,10 @@
       <c r="CN13" s="17"/>
     </row>
     <row r="14" spans="1:121" ht="60" customHeight="1">
-      <c r="A14" s="148" t="s">
+      <c r="A14" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="149" t="s">
+      <c r="B14" s="55" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="3">
@@ -3239,20 +3245,20 @@
       <c r="E14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="192"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="194"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="181"/>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
-      <c r="N14" s="103" t="s">
+      <c r="N14" s="191" t="s">
         <v>43</v>
       </c>
-      <c r="O14" s="104"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="105"/>
+      <c r="O14" s="192"/>
+      <c r="P14" s="192"/>
+      <c r="Q14" s="192"/>
+      <c r="R14" s="193"/>
       <c r="S14" s="25"/>
       <c r="T14" s="25"/>
       <c r="U14" s="25"/>
@@ -3327,9 +3333,9 @@
       <c r="CN14" s="17"/>
     </row>
     <row r="15" spans="1:121" ht="35">
-      <c r="G15" s="192"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="194"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="181"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
@@ -3413,10 +3419,10 @@
       <c r="CN15" s="17"/>
     </row>
     <row r="16" spans="1:121" ht="60" customHeight="1">
-      <c r="A16" s="150" t="s">
+      <c r="A16" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="151" t="s">
+      <c r="B16" s="57" t="s">
         <v>58</v>
       </c>
       <c r="C16" s="3">
@@ -3428,20 +3434,20 @@
       <c r="E16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="192"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="194"/>
+      <c r="G16" s="179"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="181"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
-      <c r="N16" s="100" t="s">
+      <c r="N16" s="188" t="s">
         <v>43</v>
       </c>
-      <c r="O16" s="101"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="101"/>
-      <c r="R16" s="102"/>
+      <c r="O16" s="189"/>
+      <c r="P16" s="189"/>
+      <c r="Q16" s="189"/>
+      <c r="R16" s="190"/>
       <c r="S16" s="25"/>
       <c r="T16" s="25"/>
       <c r="U16" s="25"/>
@@ -3516,9 +3522,9 @@
       <c r="CN16" s="17"/>
     </row>
     <row r="17" spans="1:93" ht="35">
-      <c r="G17" s="192"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="194"/>
+      <c r="G17" s="179"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="181"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
@@ -3602,10 +3608,10 @@
       <c r="CN17" s="17"/>
     </row>
     <row r="18" spans="1:93" ht="60" customHeight="1">
-      <c r="A18" s="152" t="s">
+      <c r="A18" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="153" t="s">
+      <c r="B18" s="59" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="3">
@@ -3614,23 +3620,23 @@
       <c r="D18" s="3">
         <v>44075</v>
       </c>
-      <c r="E18" s="3">
-        <v>44075</v>
-      </c>
-      <c r="G18" s="192"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="194"/>
+      <c r="E18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="179"/>
+      <c r="H18" s="180"/>
+      <c r="I18" s="181"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
-      <c r="N18" s="97" t="s">
+      <c r="N18" s="185" t="s">
         <v>43</v>
       </c>
-      <c r="O18" s="98"/>
-      <c r="P18" s="98"/>
-      <c r="Q18" s="98"/>
-      <c r="R18" s="99"/>
+      <c r="O18" s="186"/>
+      <c r="P18" s="186"/>
+      <c r="Q18" s="186"/>
+      <c r="R18" s="187"/>
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
       <c r="U18" s="25"/>
@@ -3705,9 +3711,9 @@
       <c r="CN18" s="17"/>
     </row>
     <row r="19" spans="1:93">
-      <c r="G19" s="192"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="194"/>
+      <c r="G19" s="179"/>
+      <c r="H19" s="180"/>
+      <c r="I19" s="181"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
@@ -3791,10 +3797,10 @@
       <c r="CN19" s="17"/>
     </row>
     <row r="20" spans="1:93" ht="60" customHeight="1">
-      <c r="A20" s="154" t="s">
+      <c r="A20" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="155" t="s">
+      <c r="B20" s="61" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="3">
@@ -3803,12 +3809,12 @@
       <c r="D20" s="3">
         <v>44075</v>
       </c>
-      <c r="E20" s="3">
-        <v>44075</v>
-      </c>
-      <c r="G20" s="195"/>
-      <c r="H20" s="196"/>
-      <c r="I20" s="197"/>
+      <c r="E20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="182"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="184"/>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
       <c r="L20" s="25"/>
@@ -3978,7 +3984,7 @@
       <c r="CN21" s="17"/>
     </row>
     <row r="22" spans="1:93" ht="60" customHeight="1">
-      <c r="A22" s="156" t="s">
+      <c r="A22" s="62" t="s">
         <v>17</v>
       </c>
       <c r="G22" s="27"/>
@@ -3995,14 +4001,14 @@
       <c r="R22" s="25"/>
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
-      <c r="U22" s="85" t="s">
+      <c r="U22" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="V22" s="86"/>
-      <c r="W22" s="86"/>
-      <c r="X22" s="86"/>
-      <c r="Y22" s="86"/>
-      <c r="Z22" s="87"/>
+      <c r="V22" s="165"/>
+      <c r="W22" s="165"/>
+      <c r="X22" s="165"/>
+      <c r="Y22" s="165"/>
+      <c r="Z22" s="166"/>
       <c r="AA22" s="25"/>
       <c r="AB22" s="25"/>
       <c r="AC22" s="25"/>
@@ -4069,7 +4075,7 @@
       <c r="CN22" s="17"/>
     </row>
     <row r="23" spans="1:93" ht="59" customHeight="1">
-      <c r="A23" s="157" t="s">
+      <c r="A23" s="63" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="27"/>
@@ -4086,12 +4092,12 @@
       <c r="R23" s="25"/>
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
-      <c r="U23" s="88"/>
-      <c r="V23" s="89"/>
-      <c r="W23" s="89"/>
-      <c r="X23" s="89"/>
-      <c r="Y23" s="89"/>
-      <c r="Z23" s="90"/>
+      <c r="U23" s="167"/>
+      <c r="V23" s="168"/>
+      <c r="W23" s="168"/>
+      <c r="X23" s="168"/>
+      <c r="Y23" s="168"/>
+      <c r="Z23" s="169"/>
       <c r="AA23" s="25"/>
       <c r="AB23" s="25"/>
       <c r="AC23" s="25"/>
@@ -4158,7 +4164,7 @@
       <c r="CN23" s="17"/>
     </row>
     <row r="24" spans="1:93" ht="59" customHeight="1">
-      <c r="A24" s="158" t="s">
+      <c r="A24" s="64" t="s">
         <v>18</v>
       </c>
       <c r="G24" s="27"/>
@@ -4175,12 +4181,12 @@
       <c r="R24" s="25"/>
       <c r="S24" s="25"/>
       <c r="T24" s="25"/>
-      <c r="U24" s="91"/>
-      <c r="V24" s="92"/>
-      <c r="W24" s="92"/>
-      <c r="X24" s="92"/>
-      <c r="Y24" s="92"/>
-      <c r="Z24" s="93"/>
+      <c r="U24" s="170"/>
+      <c r="V24" s="171"/>
+      <c r="W24" s="171"/>
+      <c r="X24" s="171"/>
+      <c r="Y24" s="171"/>
+      <c r="Z24" s="172"/>
       <c r="AA24" s="25"/>
       <c r="AB24" s="25"/>
       <c r="AC24" s="25"/>
@@ -4333,7 +4339,7 @@
       <c r="CN25" s="17"/>
     </row>
     <row r="26" spans="1:93" ht="60" customHeight="1">
-      <c r="A26" s="159" t="s">
+      <c r="A26" s="65" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="27"/>
@@ -4356,14 +4362,14 @@
       <c r="X26" s="25"/>
       <c r="Y26" s="25"/>
       <c r="Z26" s="25"/>
-      <c r="AA26" s="94" t="s">
+      <c r="AA26" s="173" t="s">
         <v>62</v>
       </c>
-      <c r="AB26" s="86"/>
-      <c r="AC26" s="86"/>
-      <c r="AD26" s="86"/>
-      <c r="AE26" s="86"/>
-      <c r="AF26" s="95"/>
+      <c r="AB26" s="165"/>
+      <c r="AC26" s="165"/>
+      <c r="AD26" s="165"/>
+      <c r="AE26" s="165"/>
+      <c r="AF26" s="174"/>
       <c r="AG26" s="16"/>
       <c r="AH26" s="17"/>
       <c r="AJ26" s="18"/>
@@ -4424,7 +4430,7 @@
       <c r="CN26" s="17"/>
     </row>
     <row r="27" spans="1:93" ht="60" customHeight="1">
-      <c r="A27" s="160" t="s">
+      <c r="A27" s="66" t="s">
         <v>17</v>
       </c>
       <c r="G27" s="27"/>
@@ -4447,12 +4453,12 @@
       <c r="X27" s="25"/>
       <c r="Y27" s="25"/>
       <c r="Z27" s="25"/>
-      <c r="AA27" s="91"/>
-      <c r="AB27" s="92"/>
-      <c r="AC27" s="92"/>
-      <c r="AD27" s="92"/>
-      <c r="AE27" s="92"/>
-      <c r="AF27" s="96"/>
+      <c r="AA27" s="170"/>
+      <c r="AB27" s="171"/>
+      <c r="AC27" s="171"/>
+      <c r="AD27" s="171"/>
+      <c r="AE27" s="171"/>
+      <c r="AF27" s="175"/>
       <c r="AG27" s="16"/>
       <c r="AH27" s="17"/>
       <c r="AJ27" s="18"/>
@@ -4541,10 +4547,10 @@
       <c r="AF28" s="16"/>
       <c r="AG28" s="16"/>
       <c r="AH28" s="17"/>
-      <c r="AJ28" s="72"/>
-      <c r="AK28" s="73"/>
-      <c r="AL28" s="73"/>
-      <c r="AM28" s="73"/>
+      <c r="AJ28" s="114"/>
+      <c r="AK28" s="115"/>
+      <c r="AL28" s="115"/>
+      <c r="AM28" s="115"/>
       <c r="AN28" s="16"/>
       <c r="AO28" s="16"/>
       <c r="AP28" s="16"/>
@@ -4601,7 +4607,7 @@
       <c r="CO28"/>
     </row>
     <row r="29" spans="1:93" ht="59" customHeight="1">
-      <c r="A29" s="161" t="s">
+      <c r="A29" s="67" t="s">
         <v>16</v>
       </c>
       <c r="G29" s="18"/>
@@ -4632,17 +4638,17 @@
       <c r="AF29" s="16"/>
       <c r="AG29" s="16"/>
       <c r="AH29" s="17"/>
-      <c r="AJ29" s="57" t="s">
+      <c r="AJ29" s="146" t="s">
         <v>55</v>
       </c>
-      <c r="AK29" s="58"/>
-      <c r="AL29" s="58"/>
-      <c r="AM29" s="58"/>
-      <c r="AN29" s="58"/>
-      <c r="AO29" s="58"/>
-      <c r="AP29" s="58"/>
-      <c r="AQ29" s="58"/>
-      <c r="AR29" s="59"/>
+      <c r="AK29" s="147"/>
+      <c r="AL29" s="147"/>
+      <c r="AM29" s="147"/>
+      <c r="AN29" s="147"/>
+      <c r="AO29" s="147"/>
+      <c r="AP29" s="147"/>
+      <c r="AQ29" s="147"/>
+      <c r="AR29" s="148"/>
       <c r="AS29" s="25"/>
       <c r="AT29" s="25"/>
       <c r="AU29" s="25"/>
@@ -4782,7 +4788,7 @@
       <c r="CO30"/>
     </row>
     <row r="31" spans="1:93" ht="59" customHeight="1">
-      <c r="A31" s="162" t="s">
+      <c r="A31" s="68" t="s">
         <v>19</v>
       </c>
       <c r="G31" s="18"/>
@@ -4825,22 +4831,22 @@
       <c r="AS31" s="25"/>
       <c r="AT31" s="25"/>
       <c r="AU31" s="25"/>
-      <c r="AV31" s="51" t="s">
+      <c r="AV31" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="AW31" s="52"/>
-      <c r="AX31" s="52"/>
-      <c r="AY31" s="52"/>
-      <c r="AZ31" s="53"/>
+      <c r="AW31" s="159"/>
+      <c r="AX31" s="159"/>
+      <c r="AY31" s="159"/>
+      <c r="AZ31" s="160"/>
       <c r="BA31" s="32"/>
       <c r="BB31" s="32"/>
-      <c r="BC31" s="54" t="s">
+      <c r="BC31" s="161" t="s">
         <v>52</v>
       </c>
-      <c r="BD31" s="55"/>
-      <c r="BE31" s="55"/>
-      <c r="BF31" s="55"/>
-      <c r="BG31" s="56"/>
+      <c r="BD31" s="162"/>
+      <c r="BE31" s="162"/>
+      <c r="BF31" s="162"/>
+      <c r="BG31" s="163"/>
       <c r="BH31" s="16"/>
       <c r="BI31" s="16"/>
       <c r="BJ31" s="16"/>
@@ -4915,20 +4921,20 @@
       <c r="AS32" s="25"/>
       <c r="AT32" s="25"/>
       <c r="AU32" s="25"/>
-      <c r="AV32" s="79" t="s">
+      <c r="AV32" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="AW32" s="80"/>
-      <c r="AX32" s="80"/>
-      <c r="AY32" s="80"/>
-      <c r="AZ32" s="80"/>
-      <c r="BA32" s="80"/>
-      <c r="BB32" s="80"/>
-      <c r="BC32" s="80"/>
-      <c r="BD32" s="80"/>
-      <c r="BE32" s="80"/>
-      <c r="BF32" s="80"/>
-      <c r="BG32" s="81"/>
+      <c r="AW32" s="128"/>
+      <c r="AX32" s="128"/>
+      <c r="AY32" s="128"/>
+      <c r="AZ32" s="128"/>
+      <c r="BA32" s="128"/>
+      <c r="BB32" s="128"/>
+      <c r="BC32" s="128"/>
+      <c r="BD32" s="128"/>
+      <c r="BE32" s="128"/>
+      <c r="BF32" s="128"/>
+      <c r="BG32" s="129"/>
       <c r="BH32" s="16"/>
       <c r="BI32" s="16"/>
       <c r="BJ32" s="16"/>
@@ -4963,7 +4969,7 @@
       <c r="CN32" s="17"/>
     </row>
     <row r="33" spans="1:92" ht="60" customHeight="1">
-      <c r="A33" s="163" t="s">
+      <c r="A33" s="69" t="s">
         <v>18</v>
       </c>
       <c r="G33" s="18"/>
@@ -5006,18 +5012,18 @@
       <c r="AS33" s="25"/>
       <c r="AT33" s="25"/>
       <c r="AU33" s="25"/>
-      <c r="AV33" s="82"/>
-      <c r="AW33" s="83"/>
-      <c r="AX33" s="83"/>
-      <c r="AY33" s="83"/>
-      <c r="AZ33" s="83"/>
-      <c r="BA33" s="83"/>
-      <c r="BB33" s="83"/>
-      <c r="BC33" s="83"/>
-      <c r="BD33" s="83"/>
-      <c r="BE33" s="83"/>
-      <c r="BF33" s="83"/>
-      <c r="BG33" s="84"/>
+      <c r="AV33" s="130"/>
+      <c r="AW33" s="131"/>
+      <c r="AX33" s="131"/>
+      <c r="AY33" s="131"/>
+      <c r="AZ33" s="131"/>
+      <c r="BA33" s="131"/>
+      <c r="BB33" s="131"/>
+      <c r="BC33" s="131"/>
+      <c r="BD33" s="131"/>
+      <c r="BE33" s="131"/>
+      <c r="BF33" s="131"/>
+      <c r="BG33" s="132"/>
       <c r="BH33" s="16"/>
       <c r="BI33" s="16"/>
       <c r="BJ33" s="16"/>
@@ -5052,7 +5058,7 @@
       <c r="CN33" s="17"/>
     </row>
     <row r="34" spans="1:92" ht="60" customHeight="1">
-      <c r="A34" s="160" t="s">
+      <c r="A34" s="66" t="s">
         <v>17</v>
       </c>
       <c r="G34" s="18"/>
@@ -5181,20 +5187,20 @@
       <c r="AS35" s="25"/>
       <c r="AT35" s="25"/>
       <c r="AU35" s="25"/>
-      <c r="AV35" s="164" t="s">
+      <c r="AV35" s="142" t="s">
         <v>46</v>
       </c>
-      <c r="AW35" s="165"/>
-      <c r="AX35" s="165"/>
-      <c r="AY35" s="165"/>
-      <c r="AZ35" s="166"/>
-      <c r="BA35" s="166"/>
-      <c r="BB35" s="166"/>
-      <c r="BC35" s="166"/>
-      <c r="BD35" s="166"/>
-      <c r="BE35" s="166"/>
-      <c r="BF35" s="166"/>
-      <c r="BG35" s="167"/>
+      <c r="AW35" s="143"/>
+      <c r="AX35" s="143"/>
+      <c r="AY35" s="143"/>
+      <c r="AZ35" s="144"/>
+      <c r="BA35" s="144"/>
+      <c r="BB35" s="144"/>
+      <c r="BC35" s="144"/>
+      <c r="BD35" s="144"/>
+      <c r="BE35" s="144"/>
+      <c r="BF35" s="144"/>
+      <c r="BG35" s="145"/>
       <c r="BH35" s="16"/>
       <c r="BI35" s="16"/>
       <c r="BJ35" s="16"/>
@@ -5229,7 +5235,7 @@
       <c r="CN35" s="17"/>
     </row>
     <row r="36" spans="1:92" ht="59">
-      <c r="A36" s="168" t="s">
+      <c r="A36" s="70" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="18"/>
@@ -5272,19 +5278,19 @@
       <c r="AS36" s="25"/>
       <c r="AT36" s="25"/>
       <c r="AU36" s="25"/>
-      <c r="AZ36" s="136"/>
-      <c r="BA36" s="136"/>
-      <c r="BB36" s="136"/>
-      <c r="BC36" s="136"/>
-      <c r="BD36" s="136"/>
-      <c r="BE36" s="136"/>
-      <c r="BF36" s="136"/>
-      <c r="BG36" s="136"/>
-      <c r="BH36" s="138" t="s">
+      <c r="AZ36" s="51"/>
+      <c r="BA36" s="51"/>
+      <c r="BB36" s="51"/>
+      <c r="BC36" s="51"/>
+      <c r="BD36" s="51"/>
+      <c r="BE36" s="51"/>
+      <c r="BF36" s="51"/>
+      <c r="BG36" s="51"/>
+      <c r="BH36" s="133" t="s">
         <v>65</v>
       </c>
-      <c r="BI36" s="139"/>
-      <c r="BJ36" s="140"/>
+      <c r="BI36" s="134"/>
+      <c r="BJ36" s="135"/>
       <c r="BK36" s="17"/>
       <c r="BM36" s="18"/>
       <c r="BN36" s="16"/>
@@ -5316,7 +5322,7 @@
       <c r="CN36" s="17"/>
     </row>
     <row r="37" spans="1:92" ht="59">
-      <c r="A37" s="169" t="s">
+      <c r="A37" s="71" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="18"/>
@@ -5359,17 +5365,17 @@
       <c r="AS37" s="25"/>
       <c r="AT37" s="25"/>
       <c r="AU37" s="25"/>
-      <c r="AZ37" s="136"/>
-      <c r="BA37" s="136"/>
-      <c r="BB37" s="136"/>
-      <c r="BC37" s="136"/>
-      <c r="BD37" s="136"/>
-      <c r="BE37" s="136"/>
-      <c r="BF37" s="136"/>
-      <c r="BG37" s="136"/>
-      <c r="BH37" s="141"/>
+      <c r="AZ37" s="51"/>
+      <c r="BA37" s="51"/>
+      <c r="BB37" s="51"/>
+      <c r="BC37" s="51"/>
+      <c r="BD37" s="51"/>
+      <c r="BE37" s="51"/>
+      <c r="BF37" s="51"/>
+      <c r="BG37" s="51"/>
+      <c r="BH37" s="136"/>
       <c r="BI37" s="137"/>
-      <c r="BJ37" s="142"/>
+      <c r="BJ37" s="138"/>
       <c r="BK37" s="17"/>
       <c r="BM37" s="18"/>
       <c r="BN37" s="16"/>
@@ -5401,7 +5407,7 @@
       <c r="CN37" s="17"/>
     </row>
     <row r="38" spans="1:92" ht="59">
-      <c r="A38" s="160" t="s">
+      <c r="A38" s="66" t="s">
         <v>17</v>
       </c>
       <c r="G38" s="18"/>
@@ -5444,17 +5450,17 @@
       <c r="AS38" s="25"/>
       <c r="AT38" s="25"/>
       <c r="AU38" s="25"/>
-      <c r="AZ38" s="136"/>
-      <c r="BA38" s="136"/>
-      <c r="BB38" s="136"/>
-      <c r="BC38" s="136"/>
-      <c r="BD38" s="136"/>
-      <c r="BE38" s="136"/>
-      <c r="BF38" s="136"/>
-      <c r="BG38" s="136"/>
-      <c r="BH38" s="143"/>
-      <c r="BI38" s="144"/>
-      <c r="BJ38" s="145"/>
+      <c r="AZ38" s="51"/>
+      <c r="BA38" s="51"/>
+      <c r="BB38" s="51"/>
+      <c r="BC38" s="51"/>
+      <c r="BD38" s="51"/>
+      <c r="BE38" s="51"/>
+      <c r="BF38" s="51"/>
+      <c r="BG38" s="51"/>
+      <c r="BH38" s="139"/>
+      <c r="BI38" s="140"/>
+      <c r="BJ38" s="141"/>
       <c r="BK38" s="17"/>
       <c r="BM38" s="18"/>
       <c r="BN38" s="16"/>
@@ -5526,14 +5532,14 @@
       <c r="AS39" s="25"/>
       <c r="AT39" s="25"/>
       <c r="AU39" s="25"/>
-      <c r="AZ39" s="136"/>
-      <c r="BA39" s="136"/>
-      <c r="BB39" s="136"/>
-      <c r="BC39" s="136"/>
-      <c r="BD39" s="136"/>
-      <c r="BE39" s="136"/>
-      <c r="BF39" s="136"/>
-      <c r="BG39" s="136"/>
+      <c r="AZ39" s="51"/>
+      <c r="BA39" s="51"/>
+      <c r="BB39" s="51"/>
+      <c r="BC39" s="51"/>
+      <c r="BD39" s="51"/>
+      <c r="BE39" s="51"/>
+      <c r="BF39" s="51"/>
+      <c r="BG39" s="51"/>
       <c r="BH39" s="16"/>
       <c r="BI39" s="16"/>
       <c r="BJ39" s="16"/>
@@ -5568,7 +5574,7 @@
       <c r="CN39" s="17"/>
     </row>
     <row r="40" spans="1:92" ht="40" customHeight="1">
-      <c r="A40" s="161" t="s">
+      <c r="A40" s="67" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="18"/>
@@ -5742,7 +5748,7 @@
       <c r="CN41" s="17"/>
     </row>
     <row r="42" spans="1:92" ht="40" customHeight="1">
-      <c r="A42" s="161" t="s">
+      <c r="A42" s="67" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="18"/>
@@ -5801,29 +5807,29 @@
       <c r="BI42" s="16"/>
       <c r="BJ42" s="16"/>
       <c r="BK42" s="17"/>
-      <c r="BM42" s="74" t="s">
+      <c r="BM42" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="BN42" s="75"/>
-      <c r="BO42" s="75"/>
-      <c r="BP42" s="75"/>
-      <c r="BQ42" s="75"/>
-      <c r="BR42" s="75"/>
-      <c r="BS42" s="75"/>
-      <c r="BT42" s="75"/>
-      <c r="BU42" s="75"/>
-      <c r="BV42" s="75"/>
-      <c r="BW42" s="75"/>
-      <c r="BX42" s="75"/>
-      <c r="BY42" s="75"/>
-      <c r="BZ42" s="75"/>
-      <c r="CA42" s="77"/>
-      <c r="CB42" s="77"/>
-      <c r="CC42" s="77"/>
-      <c r="CD42" s="77"/>
-      <c r="CE42" s="77"/>
-      <c r="CF42" s="77"/>
-      <c r="CG42" s="78"/>
+      <c r="BN42" s="117"/>
+      <c r="BO42" s="117"/>
+      <c r="BP42" s="117"/>
+      <c r="BQ42" s="117"/>
+      <c r="BR42" s="117"/>
+      <c r="BS42" s="117"/>
+      <c r="BT42" s="117"/>
+      <c r="BU42" s="117"/>
+      <c r="BV42" s="117"/>
+      <c r="BW42" s="117"/>
+      <c r="BX42" s="117"/>
+      <c r="BY42" s="117"/>
+      <c r="BZ42" s="117"/>
+      <c r="CA42" s="119"/>
+      <c r="CB42" s="119"/>
+      <c r="CC42" s="119"/>
+      <c r="CD42" s="119"/>
+      <c r="CE42" s="119"/>
+      <c r="CF42" s="119"/>
+      <c r="CG42" s="120"/>
       <c r="CH42" s="25"/>
       <c r="CI42" s="25"/>
       <c r="CJ42" s="25"/>
@@ -5919,7 +5925,7 @@
       <c r="CN43" s="17"/>
     </row>
     <row r="44" spans="1:92" ht="39" customHeight="1">
-      <c r="A44" s="161" t="s">
+      <c r="A44" s="67" t="s">
         <v>16</v>
       </c>
       <c r="G44" s="18"/>
@@ -5978,22 +5984,22 @@
       <c r="BI44" s="16"/>
       <c r="BJ44" s="16"/>
       <c r="BK44" s="17"/>
-      <c r="BM44" s="74" t="s">
+      <c r="BM44" s="116" t="s">
         <v>48</v>
       </c>
-      <c r="BN44" s="75"/>
-      <c r="BO44" s="75"/>
-      <c r="BP44" s="75"/>
-      <c r="BQ44" s="75"/>
-      <c r="BR44" s="75"/>
-      <c r="BS44" s="75"/>
-      <c r="BT44" s="75"/>
-      <c r="BU44" s="75"/>
-      <c r="BV44" s="75"/>
-      <c r="BW44" s="75"/>
-      <c r="BX44" s="75"/>
-      <c r="BY44" s="75"/>
-      <c r="BZ44" s="76"/>
+      <c r="BN44" s="117"/>
+      <c r="BO44" s="117"/>
+      <c r="BP44" s="117"/>
+      <c r="BQ44" s="117"/>
+      <c r="BR44" s="117"/>
+      <c r="BS44" s="117"/>
+      <c r="BT44" s="117"/>
+      <c r="BU44" s="117"/>
+      <c r="BV44" s="117"/>
+      <c r="BW44" s="117"/>
+      <c r="BX44" s="117"/>
+      <c r="BY44" s="117"/>
+      <c r="BZ44" s="118"/>
       <c r="CA44" s="25"/>
       <c r="CB44" s="25"/>
       <c r="CC44" s="25"/>
@@ -6096,7 +6102,7 @@
       <c r="CN45" s="17"/>
     </row>
     <row r="46" spans="1:92" ht="39" customHeight="1">
-      <c r="A46" s="156" t="s">
+      <c r="A46" s="62" t="s">
         <v>17</v>
       </c>
       <c r="G46" s="18"/>
@@ -6169,15 +6175,15 @@
       <c r="BX46" s="25"/>
       <c r="BY46" s="25"/>
       <c r="BZ46" s="25"/>
-      <c r="CA46" s="66" t="s">
+      <c r="CA46" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="CB46" s="67"/>
-      <c r="CC46" s="67"/>
-      <c r="CD46" s="67"/>
-      <c r="CE46" s="67"/>
-      <c r="CF46" s="67"/>
-      <c r="CG46" s="68"/>
+      <c r="CB46" s="122"/>
+      <c r="CC46" s="122"/>
+      <c r="CD46" s="122"/>
+      <c r="CE46" s="122"/>
+      <c r="CF46" s="122"/>
+      <c r="CG46" s="123"/>
       <c r="CH46" s="25"/>
       <c r="CI46" s="25"/>
       <c r="CJ46" s="25"/>
@@ -6187,7 +6193,7 @@
       <c r="CN46" s="17"/>
     </row>
     <row r="47" spans="1:92" ht="40" customHeight="1">
-      <c r="A47" s="170" t="s">
+      <c r="A47" s="72" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="18"/>
@@ -6260,13 +6266,13 @@
       <c r="BX47" s="25"/>
       <c r="BY47" s="25"/>
       <c r="BZ47" s="25"/>
-      <c r="CA47" s="69"/>
-      <c r="CB47" s="70"/>
-      <c r="CC47" s="70"/>
-      <c r="CD47" s="70"/>
-      <c r="CE47" s="70"/>
-      <c r="CF47" s="70"/>
-      <c r="CG47" s="71"/>
+      <c r="CA47" s="124"/>
+      <c r="CB47" s="125"/>
+      <c r="CC47" s="125"/>
+      <c r="CD47" s="125"/>
+      <c r="CE47" s="125"/>
+      <c r="CF47" s="125"/>
+      <c r="CG47" s="126"/>
       <c r="CH47" s="25"/>
       <c r="CI47" s="25"/>
       <c r="CJ47" s="25"/>
@@ -6362,7 +6368,7 @@
       <c r="CN48" s="17"/>
     </row>
     <row r="49" spans="1:92" ht="40" customHeight="1">
-      <c r="A49" s="159" t="s">
+      <c r="A49" s="65" t="s">
         <v>16</v>
       </c>
       <c r="G49" s="18"/>
@@ -6442,18 +6448,18 @@
       <c r="CE49" s="25"/>
       <c r="CF49" s="25"/>
       <c r="CG49" s="25"/>
-      <c r="CH49" s="66" t="s">
+      <c r="CH49" s="121" t="s">
         <v>50</v>
       </c>
-      <c r="CI49" s="67"/>
-      <c r="CJ49" s="67"/>
-      <c r="CK49" s="68"/>
+      <c r="CI49" s="122"/>
+      <c r="CJ49" s="122"/>
+      <c r="CK49" s="123"/>
       <c r="CL49" s="16"/>
       <c r="CM49" s="16"/>
       <c r="CN49" s="17"/>
     </row>
     <row r="50" spans="1:92" ht="40" customHeight="1">
-      <c r="A50" s="160" t="s">
+      <c r="A50" s="66" t="s">
         <v>17</v>
       </c>
       <c r="G50" s="18"/>
@@ -6533,10 +6539,10 @@
       <c r="CE50" s="25"/>
       <c r="CF50" s="25"/>
       <c r="CG50" s="25"/>
-      <c r="CH50" s="69"/>
-      <c r="CI50" s="70"/>
-      <c r="CJ50" s="70"/>
-      <c r="CK50" s="71"/>
+      <c r="CH50" s="124"/>
+      <c r="CI50" s="125"/>
+      <c r="CJ50" s="125"/>
+      <c r="CK50" s="126"/>
       <c r="CL50" s="16"/>
       <c r="CM50" s="16"/>
       <c r="CN50" s="17"/>
@@ -6628,7 +6634,7 @@
       <c r="CN51" s="17"/>
     </row>
     <row r="52" spans="1:92" ht="40" customHeight="1">
-      <c r="A52" s="171" t="s">
+      <c r="A52" s="73" t="s">
         <v>15</v>
       </c>
       <c r="G52" s="18"/>
@@ -6712,14 +6718,14 @@
       <c r="CI52" s="16"/>
       <c r="CJ52" s="16"/>
       <c r="CK52" s="16"/>
-      <c r="CL52" s="172" t="s">
+      <c r="CL52" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="CM52" s="173"/>
-      <c r="CN52" s="174"/>
+      <c r="CM52" s="106"/>
+      <c r="CN52" s="107"/>
     </row>
     <row r="53" spans="1:92" ht="41" customHeight="1">
-      <c r="A53" s="169" t="s">
+      <c r="A53" s="71" t="s">
         <v>16</v>
       </c>
       <c r="G53" s="18"/>
@@ -6803,12 +6809,12 @@
       <c r="CI53" s="16"/>
       <c r="CJ53" s="16"/>
       <c r="CK53" s="16"/>
-      <c r="CL53" s="175"/>
-      <c r="CM53" s="176"/>
-      <c r="CN53" s="177"/>
+      <c r="CL53" s="108"/>
+      <c r="CM53" s="109"/>
+      <c r="CN53" s="110"/>
     </row>
     <row r="54" spans="1:92" ht="41" customHeight="1">
-      <c r="A54" s="160" t="s">
+      <c r="A54" s="66" t="s">
         <v>17</v>
       </c>
       <c r="G54" s="20"/>
@@ -6892,46 +6898,15 @@
       <c r="CI54" s="21"/>
       <c r="CJ54" s="21"/>
       <c r="CK54" s="21"/>
-      <c r="CL54" s="178"/>
-      <c r="CM54" s="179"/>
-      <c r="CN54" s="180"/>
+      <c r="CL54" s="111"/>
+      <c r="CM54" s="112"/>
+      <c r="CN54" s="113"/>
     </row>
     <row r="55" spans="1:92" ht="18">
       <c r="CL55" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="BM4:CN4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="BM6:CN6"/>
-    <mergeCell ref="BM7:BS7"/>
-    <mergeCell ref="BT7:BZ7"/>
-    <mergeCell ref="CA7:CG7"/>
-    <mergeCell ref="CH7:CN7"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="AB7:AH7"/>
-    <mergeCell ref="AJ7:AP7"/>
-    <mergeCell ref="AQ7:AW7"/>
-    <mergeCell ref="AX7:BD7"/>
-    <mergeCell ref="BE7:BK7"/>
-    <mergeCell ref="DK7:DQ7"/>
-    <mergeCell ref="DD7:DJ7"/>
-    <mergeCell ref="CW7:DC7"/>
-    <mergeCell ref="CP7:CV7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="CL52:CN54"/>
-    <mergeCell ref="AJ28:AM28"/>
-    <mergeCell ref="BM44:BZ44"/>
-    <mergeCell ref="BM42:CG42"/>
-    <mergeCell ref="CA46:CG47"/>
-    <mergeCell ref="AV32:BG33"/>
-    <mergeCell ref="BH36:BJ38"/>
-    <mergeCell ref="AV35:BG35"/>
-    <mergeCell ref="AJ29:AR29"/>
     <mergeCell ref="AJ11:BK11"/>
     <mergeCell ref="BM11:CN11"/>
     <mergeCell ref="CH49:CK50"/>
@@ -6948,6 +6923,37 @@
     <mergeCell ref="AJ6:BK6"/>
     <mergeCell ref="G6:AH6"/>
     <mergeCell ref="G4:AH4"/>
+    <mergeCell ref="CL52:CN54"/>
+    <mergeCell ref="AJ28:AM28"/>
+    <mergeCell ref="BM44:BZ44"/>
+    <mergeCell ref="BM42:CG42"/>
+    <mergeCell ref="CA46:CG47"/>
+    <mergeCell ref="AV32:BG33"/>
+    <mergeCell ref="BH36:BJ38"/>
+    <mergeCell ref="AV35:BG35"/>
+    <mergeCell ref="AJ29:AR29"/>
+    <mergeCell ref="DK7:DQ7"/>
+    <mergeCell ref="DD7:DJ7"/>
+    <mergeCell ref="CW7:DC7"/>
+    <mergeCell ref="CP7:CV7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="BM7:BS7"/>
+    <mergeCell ref="BT7:BZ7"/>
+    <mergeCell ref="CA7:CG7"/>
+    <mergeCell ref="CH7:CN7"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="AB7:AH7"/>
+    <mergeCell ref="AJ7:AP7"/>
+    <mergeCell ref="AQ7:AW7"/>
+    <mergeCell ref="AX7:BD7"/>
+    <mergeCell ref="BE7:BK7"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="BM4:CN4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="BM6:CN6"/>
     <mergeCell ref="AJ4:BK4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
